--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vcam1-Itga9.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vcam1-Itga9.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.972416</v>
+        <v>9.673685499999999</v>
       </c>
       <c r="H2">
-        <v>29.944832</v>
+        <v>19.347371</v>
       </c>
       <c r="I2">
-        <v>0.1033656722518704</v>
+        <v>0.115977165622779</v>
       </c>
       <c r="J2">
-        <v>0.08332290573803897</v>
+        <v>0.09051257664205575</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.60302</v>
+        <v>2.326206</v>
       </c>
       <c r="N2">
-        <v>13.20604</v>
+        <v>4.652412</v>
       </c>
       <c r="O2">
-        <v>0.2062486251499857</v>
+        <v>0.2428846460657843</v>
       </c>
       <c r="P2">
-        <v>0.1490335290681818</v>
+        <v>0.186053910865194</v>
       </c>
       <c r="Q2">
-        <v>98.86316229632</v>
+        <v>22.502985252213</v>
       </c>
       <c r="R2">
-        <v>395.45264918528</v>
+        <v>90.01194100885199</v>
       </c>
       <c r="S2">
-        <v>0.02131902778965231</v>
+        <v>0.02816907282400152</v>
       </c>
       <c r="T2">
-        <v>0.0124179066943554</v>
+        <v>0.01684021886674009</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.972416</v>
+        <v>9.673685499999999</v>
       </c>
       <c r="H3">
-        <v>29.944832</v>
+        <v>19.347371</v>
       </c>
       <c r="I3">
-        <v>0.1033656722518704</v>
+        <v>0.115977165622779</v>
       </c>
       <c r="J3">
-        <v>0.08332290573803897</v>
+        <v>0.09051257664205575</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>8.668665000000001</v>
       </c>
       <c r="O3">
-        <v>0.09025669255057035</v>
+        <v>0.301705241695111</v>
       </c>
       <c r="P3">
-        <v>0.0978280951185844</v>
+        <v>0.3466672825257581</v>
       </c>
       <c r="Q3">
-        <v>43.26361951488</v>
+        <v>27.9526463049525</v>
       </c>
       <c r="R3">
-        <v>259.58171708928</v>
+        <v>167.715877829715</v>
       </c>
       <c r="S3">
-        <v>0.009329443700720093</v>
+        <v>0.03499091878533445</v>
       </c>
       <c r="T3">
-        <v>0.008151321148097718</v>
+        <v>0.03137774897890588</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.972416</v>
+        <v>9.673685499999999</v>
       </c>
       <c r="H4">
-        <v>29.944832</v>
+        <v>19.347371</v>
       </c>
       <c r="I4">
-        <v>0.1033656722518704</v>
+        <v>0.115977165622779</v>
       </c>
       <c r="J4">
-        <v>0.08332290573803897</v>
+        <v>0.09051257664205575</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.577456666666667</v>
+        <v>1.056895</v>
       </c>
       <c r="N4">
-        <v>19.73237</v>
+        <v>3.170685</v>
       </c>
       <c r="O4">
-        <v>0.2054501416751135</v>
+        <v>0.1103528956608731</v>
       </c>
       <c r="P4">
-        <v>0.2226848273955795</v>
+        <v>0.1267983885287046</v>
       </c>
       <c r="Q4">
-        <v>98.48041743530666</v>
+        <v>10.2240698365225</v>
       </c>
       <c r="R4">
-        <v>590.88250461184</v>
+        <v>61.34441901913499</v>
       </c>
       <c r="S4">
-        <v>0.02123649200849013</v>
+        <v>0.01279841605701433</v>
       </c>
       <c r="T4">
-        <v>0.01855474688237335</v>
+        <v>0.01147684885979354</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.972416</v>
+        <v>9.673685499999999</v>
       </c>
       <c r="H5">
-        <v>29.944832</v>
+        <v>19.347371</v>
       </c>
       <c r="I5">
-        <v>0.1033656722518704</v>
+        <v>0.115977165622779</v>
       </c>
       <c r="J5">
-        <v>0.08332290573803897</v>
+        <v>0.09051257664205575</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8303464999999999</v>
+        <v>1.400306</v>
       </c>
       <c r="N5">
-        <v>1.660693</v>
+        <v>2.800612</v>
       </c>
       <c r="O5">
-        <v>0.02593628733868784</v>
+        <v>0.1462092468138222</v>
       </c>
       <c r="P5">
-        <v>0.01874134399780903</v>
+        <v>0.1119988546620533</v>
       </c>
       <c r="Q5">
-        <v>12.432293222144</v>
+        <v>13.546119847763</v>
       </c>
       <c r="R5">
-        <v>49.72917288857599</v>
+        <v>54.184479391052</v>
       </c>
       <c r="S5">
-        <v>0.002680921776481145</v>
+        <v>0.01695693403330843</v>
       </c>
       <c r="T5">
-        <v>0.001561583239333604</v>
+        <v>0.01013730491642157</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.972416</v>
+        <v>9.673685499999999</v>
       </c>
       <c r="H6">
-        <v>29.944832</v>
+        <v>19.347371</v>
       </c>
       <c r="I6">
-        <v>0.1033656722518704</v>
+        <v>0.115977165622779</v>
       </c>
       <c r="J6">
-        <v>0.08332290573803897</v>
+        <v>0.09051257664205575</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.030276666666667</v>
+        <v>0.4705963333333334</v>
       </c>
       <c r="N6">
-        <v>9.09083</v>
+        <v>1.411789</v>
       </c>
       <c r="O6">
-        <v>0.09465220404058775</v>
+        <v>0.04913607129442642</v>
       </c>
       <c r="P6">
-        <v>0.1025923347997507</v>
+        <v>0.05645864226265031</v>
       </c>
       <c r="Q6">
-        <v>45.37056284842667</v>
+        <v>4.552400926119834</v>
       </c>
       <c r="R6">
-        <v>272.22337709056</v>
+        <v>27.314405556719</v>
       </c>
       <c r="S6">
-        <v>0.00978378870077656</v>
+        <v>0.00569866227856637</v>
       </c>
       <c r="T6">
-        <v>0.008548291441964959</v>
+        <v>0.005110217184904545</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.972416</v>
+        <v>9.673685499999999</v>
       </c>
       <c r="H7">
-        <v>29.944832</v>
+        <v>19.347371</v>
       </c>
       <c r="I7">
-        <v>0.1033656722518704</v>
+        <v>0.115977165622779</v>
       </c>
       <c r="J7">
-        <v>0.08332290573803897</v>
+        <v>0.09051257664205575</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.084201</v>
+        <v>1.433852333333333</v>
       </c>
       <c r="N7">
-        <v>36.252603</v>
+        <v>4.301557</v>
       </c>
       <c r="O7">
-        <v>0.377456049245055</v>
+        <v>0.1497118984699831</v>
       </c>
       <c r="P7">
-        <v>0.4091198696200947</v>
+        <v>0.1720229211556396</v>
       </c>
       <c r="Q7">
-        <v>180.929684399616</v>
+        <v>13.87063652610783</v>
       </c>
       <c r="R7">
-        <v>1085.578106397696</v>
+        <v>83.223819156647</v>
       </c>
       <c r="S7">
-        <v>0.03901599827575022</v>
+        <v>0.01736316164455391</v>
       </c>
       <c r="T7">
-        <v>0.03408905633191394</v>
+        <v>0.01557023783529014</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>40.41312266666667</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H8">
         <v>121.239368</v>
       </c>
       <c r="I8">
-        <v>0.2790017050179012</v>
+        <v>0.484510212870336</v>
       </c>
       <c r="J8">
-        <v>0.3373542530344942</v>
+        <v>0.5671926996248948</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.60302</v>
+        <v>2.326206</v>
       </c>
       <c r="N8">
-        <v>13.20604</v>
+        <v>4.652412</v>
       </c>
       <c r="O8">
-        <v>0.2062486251499857</v>
+        <v>0.2428846460657843</v>
       </c>
       <c r="P8">
-        <v>0.1490335290681818</v>
+        <v>0.186053910865194</v>
       </c>
       <c r="Q8">
-        <v>266.8486572304533</v>
+        <v>94.00924842593598</v>
       </c>
       <c r="R8">
-        <v>1601.09194338272</v>
+        <v>564.055490555616</v>
       </c>
       <c r="S8">
-        <v>0.05754371807444399</v>
+        <v>0.1176800915682694</v>
       </c>
       <c r="T8">
-        <v>0.05027709487589104</v>
+        <v>0.105528419979399</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>40.41312266666667</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H9">
         <v>121.239368</v>
       </c>
       <c r="I9">
-        <v>0.2790017050179012</v>
+        <v>0.484510212870336</v>
       </c>
       <c r="J9">
-        <v>0.3373542530344942</v>
+        <v>0.5671926996248948</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>8.668665000000001</v>
       </c>
       <c r="O9">
-        <v>0.09025669255057035</v>
+        <v>0.301705241695111</v>
       </c>
       <c r="P9">
-        <v>0.0978280951185844</v>
+        <v>0.3466672825257581</v>
       </c>
       <c r="Q9">
         <v>116.77594066708</v>
@@ -1013,10 +1013,10 @@
         <v>1050.98346600372</v>
       </c>
       <c r="S9">
-        <v>0.02518177111088563</v>
+        <v>0.1461792708777944</v>
       </c>
       <c r="T9">
-        <v>0.03300272395451748</v>
+        <v>0.1966271518474109</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>40.41312266666667</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H10">
         <v>121.239368</v>
       </c>
       <c r="I10">
-        <v>0.2790017050179012</v>
+        <v>0.484510212870336</v>
       </c>
       <c r="J10">
-        <v>0.3373542530344942</v>
+        <v>0.5671926996248948</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.577456666666667</v>
+        <v>1.056895</v>
       </c>
       <c r="N10">
-        <v>19.73237</v>
+        <v>3.170685</v>
       </c>
       <c r="O10">
-        <v>0.2054501416751135</v>
+        <v>0.1103528956608731</v>
       </c>
       <c r="P10">
-        <v>0.2226848273955795</v>
+        <v>0.1267983885287046</v>
       </c>
       <c r="Q10">
-        <v>265.8155631046844</v>
+        <v>42.71242728078666</v>
       </c>
       <c r="R10">
-        <v>2392.34006794216</v>
+        <v>384.4118455270799</v>
       </c>
       <c r="S10">
-        <v>0.05732093982352603</v>
+        <v>0.05346710496750762</v>
       </c>
       <c r="T10">
-        <v>0.07512367360815099</v>
+        <v>0.07191912029768227</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>40.41312266666667</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H11">
         <v>121.239368</v>
       </c>
       <c r="I11">
-        <v>0.2790017050179012</v>
+        <v>0.484510212870336</v>
       </c>
       <c r="J11">
-        <v>0.3373542530344942</v>
+        <v>0.5671926996248948</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.8303464999999999</v>
+        <v>1.400306</v>
       </c>
       <c r="N11">
-        <v>1.660693</v>
+        <v>2.800612</v>
       </c>
       <c r="O11">
-        <v>0.02593628733868784</v>
+        <v>0.1462092468138222</v>
       </c>
       <c r="P11">
-        <v>0.01874134399780903</v>
+        <v>0.1119988546620533</v>
       </c>
       <c r="Q11">
-        <v>33.55689496033733</v>
+        <v>56.59073814886933</v>
       </c>
       <c r="R11">
-        <v>201.341369762024</v>
+        <v>339.544428893216</v>
       </c>
       <c r="S11">
-        <v>0.007236268389328111</v>
+        <v>0.0708398732973765</v>
       </c>
       <c r="T11">
-        <v>0.006322472105243368</v>
+        <v>0.06352493273066626</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>40.41312266666667</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H12">
         <v>121.239368</v>
       </c>
       <c r="I12">
-        <v>0.2790017050179012</v>
+        <v>0.484510212870336</v>
       </c>
       <c r="J12">
-        <v>0.3373542530344942</v>
+        <v>0.5671926996248948</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.030276666666667</v>
+        <v>0.4705963333333334</v>
       </c>
       <c r="N12">
-        <v>9.09083</v>
+        <v>1.411789</v>
       </c>
       <c r="O12">
-        <v>0.09465220404058775</v>
+        <v>0.04913607129442642</v>
       </c>
       <c r="P12">
-        <v>0.1025923347997507</v>
+        <v>0.05645864226265031</v>
       </c>
       <c r="Q12">
-        <v>122.4629426439378</v>
+        <v>19.01826734548355</v>
       </c>
       <c r="R12">
-        <v>1102.16648379544</v>
+        <v>171.164406109352</v>
       </c>
       <c r="S12">
-        <v>0.02640812631102625</v>
+        <v>0.02380692836247456</v>
       </c>
       <c r="T12">
-        <v>0.03460996047343463</v>
+        <v>0.03202292972210881</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>40.41312266666667</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H13">
         <v>121.239368</v>
       </c>
       <c r="I13">
-        <v>0.2790017050179012</v>
+        <v>0.484510212870336</v>
       </c>
       <c r="J13">
-        <v>0.3373542530344942</v>
+        <v>0.5671926996248948</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.084201</v>
+        <v>1.433852333333333</v>
       </c>
       <c r="N13">
-        <v>36.252603</v>
+        <v>4.301557</v>
       </c>
       <c r="O13">
-        <v>0.377456049245055</v>
+        <v>0.1497118984699831</v>
       </c>
       <c r="P13">
-        <v>0.4091198696200947</v>
+        <v>0.1720229211556396</v>
       </c>
       <c r="Q13">
-        <v>488.360297341656</v>
+        <v>57.94645023288621</v>
       </c>
       <c r="R13">
-        <v>4395.242676074904</v>
+        <v>521.5180520959759</v>
       </c>
       <c r="S13">
-        <v>0.1053108813086912</v>
+        <v>0.07253694379691367</v>
       </c>
       <c r="T13">
-        <v>0.1380183280172567</v>
+        <v>0.09757014504762765</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.007042333333334</v>
+        <v>1.927632333333333</v>
       </c>
       <c r="H14">
-        <v>15.021127</v>
+        <v>5.782896999999999</v>
       </c>
       <c r="I14">
-        <v>0.03456732011577651</v>
+        <v>0.0231102545542569</v>
       </c>
       <c r="J14">
-        <v>0.04179699352128982</v>
+        <v>0.02705405855532591</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.60302</v>
+        <v>2.326206</v>
       </c>
       <c r="N14">
-        <v>13.20604</v>
+        <v>4.652412</v>
       </c>
       <c r="O14">
-        <v>0.2062486251499857</v>
+        <v>0.2428846460657843</v>
       </c>
       <c r="P14">
-        <v>0.1490335290681818</v>
+        <v>0.186053910865194</v>
       </c>
       <c r="Q14">
-        <v>33.06160066784667</v>
+        <v>4.484069899594</v>
       </c>
       <c r="R14">
-        <v>198.36960400708</v>
+        <v>26.90441939756399</v>
       </c>
       <c r="S14">
-        <v>0.007129462248998351</v>
+        <v>0.005613125997900865</v>
       </c>
       <c r="T14">
-        <v>0.006229153448917752</v>
+        <v>0.005033513398994346</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.007042333333334</v>
+        <v>1.927632333333333</v>
       </c>
       <c r="H15">
-        <v>15.021127</v>
+        <v>5.782896999999999</v>
       </c>
       <c r="I15">
-        <v>0.03456732011577651</v>
+        <v>0.0231102545542569</v>
       </c>
       <c r="J15">
-        <v>0.04179699352128982</v>
+        <v>0.02705405855532591</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>8.668665000000001</v>
       </c>
       <c r="O15">
-        <v>0.09025669255057035</v>
+        <v>0.301705241695111</v>
       </c>
       <c r="P15">
-        <v>0.0978280951185844</v>
+        <v>0.3466672825257581</v>
       </c>
       <c r="Q15">
-        <v>14.468124209495</v>
+        <v>5.569999646945</v>
       </c>
       <c r="R15">
-        <v>130.213117885455</v>
+        <v>50.129996822505</v>
       </c>
       <c r="S15">
-        <v>0.003119931983986786</v>
+        <v>0.006972484935927617</v>
       </c>
       <c r="T15">
-        <v>0.004088920257871597</v>
+        <v>0.00937875696066757</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.007042333333334</v>
+        <v>1.927632333333333</v>
       </c>
       <c r="H16">
-        <v>15.021127</v>
+        <v>5.782896999999999</v>
       </c>
       <c r="I16">
-        <v>0.03456732011577651</v>
+        <v>0.0231102545542569</v>
       </c>
       <c r="J16">
-        <v>0.04179699352128982</v>
+        <v>0.02705405855532591</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.577456666666667</v>
+        <v>1.056895</v>
       </c>
       <c r="N16">
-        <v>19.73237</v>
+        <v>3.170685</v>
       </c>
       <c r="O16">
-        <v>0.2054501416751135</v>
+        <v>0.1103528956608731</v>
       </c>
       <c r="P16">
-        <v>0.2226848273955795</v>
+        <v>0.1267983885287046</v>
       </c>
       <c r="Q16">
-        <v>32.93360397566556</v>
+        <v>2.037304974938333</v>
       </c>
       <c r="R16">
-        <v>296.40243578099</v>
+        <v>18.335744774445</v>
       </c>
       <c r="S16">
-        <v>0.007101860815115286</v>
+        <v>0.002550283509522129</v>
       </c>
       <c r="T16">
-        <v>0.009307556287942578</v>
+        <v>0.003430411027976539</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.007042333333334</v>
+        <v>1.927632333333333</v>
       </c>
       <c r="H17">
-        <v>15.021127</v>
+        <v>5.782896999999999</v>
       </c>
       <c r="I17">
-        <v>0.03456732011577651</v>
+        <v>0.0231102545542569</v>
       </c>
       <c r="J17">
-        <v>0.04179699352128982</v>
+        <v>0.02705405855532591</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.8303464999999999</v>
+        <v>1.400306</v>
       </c>
       <c r="N17">
-        <v>1.660693</v>
+        <v>2.800612</v>
       </c>
       <c r="O17">
-        <v>0.02593628733868784</v>
+        <v>0.1462092468138222</v>
       </c>
       <c r="P17">
-        <v>0.01874134399780903</v>
+        <v>0.1119988546620533</v>
       </c>
       <c r="Q17">
-        <v>4.157580076835166</v>
+        <v>2.699275122160667</v>
       </c>
       <c r="R17">
-        <v>24.94548046101099</v>
+        <v>16.195650732964</v>
       </c>
       <c r="S17">
-        <v>0.0008965479470511839</v>
+        <v>0.003378932912053606</v>
       </c>
       <c r="T17">
-        <v>0.000783331833656688</v>
+        <v>0.003030023572156627</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.007042333333334</v>
+        <v>1.927632333333333</v>
       </c>
       <c r="H18">
-        <v>15.021127</v>
+        <v>5.782896999999999</v>
       </c>
       <c r="I18">
-        <v>0.03456732011577651</v>
+        <v>0.0231102545542569</v>
       </c>
       <c r="J18">
-        <v>0.04179699352128982</v>
+        <v>0.02705405855532591</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.030276666666667</v>
+        <v>0.4705963333333334</v>
       </c>
       <c r="N18">
-        <v>9.09083</v>
+        <v>1.411789</v>
       </c>
       <c r="O18">
-        <v>0.09465220404058775</v>
+        <v>0.04913607129442642</v>
       </c>
       <c r="P18">
-        <v>0.1025923347997507</v>
+        <v>0.05645864226265031</v>
       </c>
       <c r="Q18">
-        <v>15.17272355171222</v>
+        <v>0.9071367080814445</v>
       </c>
       <c r="R18">
-        <v>136.55451196541</v>
+        <v>8.164230372733</v>
       </c>
       <c r="S18">
-        <v>0.003271873036734792</v>
+        <v>0.00113554711541031</v>
       </c>
       <c r="T18">
-        <v>0.004288051152959175</v>
+        <v>0.001527435413727939</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.007042333333334</v>
+        <v>1.927632333333333</v>
       </c>
       <c r="H19">
-        <v>15.021127</v>
+        <v>5.782896999999999</v>
       </c>
       <c r="I19">
-        <v>0.03456732011577651</v>
+        <v>0.0231102545542569</v>
       </c>
       <c r="J19">
-        <v>0.04179699352128982</v>
+        <v>0.02705405855532591</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.084201</v>
+        <v>1.433852333333333</v>
       </c>
       <c r="N19">
-        <v>36.252603</v>
+        <v>4.301557</v>
       </c>
       <c r="O19">
-        <v>0.377456049245055</v>
+        <v>0.1497118984699831</v>
       </c>
       <c r="P19">
-        <v>0.4091198696200947</v>
+        <v>0.1720229211556396</v>
       </c>
       <c r="Q19">
-        <v>60.506105971509</v>
+        <v>2.763940118958777</v>
       </c>
       <c r="R19">
-        <v>544.554953743581</v>
+        <v>24.875461070629</v>
       </c>
       <c r="S19">
-        <v>0.01304764408389012</v>
+        <v>0.003459880083442374</v>
       </c>
       <c r="T19">
-        <v>0.01709998053994203</v>
+        <v>0.004653918181802884</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>60.1916805</v>
+        <v>26.8036935</v>
       </c>
       <c r="H20">
-        <v>120.383361</v>
+        <v>53.607387</v>
       </c>
       <c r="I20">
-        <v>0.4155477325003728</v>
+        <v>0.3213476808142776</v>
       </c>
       <c r="J20">
-        <v>0.33497237323059</v>
+        <v>0.2507908037954016</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.60302</v>
+        <v>2.326206</v>
       </c>
       <c r="N20">
-        <v>13.20604</v>
+        <v>4.652412</v>
       </c>
       <c r="O20">
-        <v>0.2062486251499857</v>
+        <v>0.2428846460657843</v>
       </c>
       <c r="P20">
-        <v>0.1490335290681818</v>
+        <v>0.186053910865194</v>
       </c>
       <c r="Q20">
-        <v>397.44687017511</v>
+        <v>62.350912641861</v>
       </c>
       <c r="R20">
-        <v>1589.78748070044</v>
+        <v>249.403650567444</v>
       </c>
       <c r="S20">
-        <v>0.08570614851239594</v>
+        <v>0.07805041771863643</v>
       </c>
       <c r="T20">
-        <v>0.04992211492289898</v>
+        <v>0.04666060985516002</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>60.1916805</v>
+        <v>26.8036935</v>
       </c>
       <c r="H21">
-        <v>120.383361</v>
+        <v>53.607387</v>
       </c>
       <c r="I21">
-        <v>0.4155477325003728</v>
+        <v>0.3213476808142776</v>
       </c>
       <c r="J21">
-        <v>0.33497237323059</v>
+        <v>0.2507908037954016</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>8.668665000000001</v>
       </c>
       <c r="O21">
-        <v>0.09025669255057035</v>
+        <v>0.301705241695111</v>
       </c>
       <c r="P21">
-        <v>0.0978280951185844</v>
+        <v>0.3466672825257581</v>
       </c>
       <c r="Q21">
-        <v>173.9271713471775</v>
+        <v>77.4507465713925</v>
       </c>
       <c r="R21">
-        <v>1043.563028083065</v>
+        <v>464.7044794283551</v>
       </c>
       <c r="S21">
-        <v>0.0375059639323728</v>
+        <v>0.09695227970823499</v>
       </c>
       <c r="T21">
-        <v>0.03276970919050012</v>
+        <v>0.08694096643420247</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>60.1916805</v>
+        <v>26.8036935</v>
       </c>
       <c r="H22">
-        <v>120.383361</v>
+        <v>53.607387</v>
       </c>
       <c r="I22">
-        <v>0.4155477325003728</v>
+        <v>0.3213476808142776</v>
       </c>
       <c r="J22">
-        <v>0.33497237323059</v>
+        <v>0.2507908037954016</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.577456666666667</v>
+        <v>1.056895</v>
       </c>
       <c r="N22">
-        <v>19.73237</v>
+        <v>3.170685</v>
       </c>
       <c r="O22">
-        <v>0.2054501416751135</v>
+        <v>0.1103528956608731</v>
       </c>
       <c r="P22">
-        <v>0.2226848273955795</v>
+        <v>0.1267983885287046</v>
       </c>
       <c r="Q22">
-        <v>395.908170182595</v>
+        <v>28.3286896416825</v>
       </c>
       <c r="R22">
-        <v>2375.44902109557</v>
+        <v>169.972137850095</v>
       </c>
       <c r="S22">
-        <v>0.08537434051497376</v>
+        <v>0.03546164709176153</v>
       </c>
       <c r="T22">
-        <v>0.07459326511514157</v>
+        <v>0.03179986977907547</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>60.1916805</v>
+        <v>26.8036935</v>
       </c>
       <c r="H23">
-        <v>120.383361</v>
+        <v>53.607387</v>
       </c>
       <c r="I23">
-        <v>0.4155477325003728</v>
+        <v>0.3213476808142776</v>
       </c>
       <c r="J23">
-        <v>0.33497237323059</v>
+        <v>0.2507908037954016</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.8303464999999999</v>
+        <v>1.400306</v>
       </c>
       <c r="N23">
-        <v>1.660693</v>
+        <v>2.800612</v>
       </c>
       <c r="O23">
-        <v>0.02593628733868784</v>
+        <v>0.1462092468138222</v>
       </c>
       <c r="P23">
-        <v>0.01874134399780903</v>
+        <v>0.1119988546620533</v>
       </c>
       <c r="Q23">
-        <v>49.97995123229324</v>
+        <v>37.533372830211</v>
       </c>
       <c r="R23">
-        <v>199.919804929173</v>
+        <v>150.133491320844</v>
       </c>
       <c r="S23">
-        <v>0.01077776539306986</v>
+        <v>0.04698400237722407</v>
       </c>
       <c r="T23">
-        <v>0.006277832476476966</v>
+        <v>0.02808828278486072</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>60.1916805</v>
+        <v>26.8036935</v>
       </c>
       <c r="H24">
-        <v>120.383361</v>
+        <v>53.607387</v>
       </c>
       <c r="I24">
-        <v>0.4155477325003728</v>
+        <v>0.3213476808142776</v>
       </c>
       <c r="J24">
-        <v>0.33497237323059</v>
+        <v>0.2507908037954016</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.030276666666667</v>
+        <v>0.4705963333333334</v>
       </c>
       <c r="N24">
-        <v>9.09083</v>
+        <v>1.411789</v>
       </c>
       <c r="O24">
-        <v>0.09465220404058775</v>
+        <v>0.04913607129442642</v>
       </c>
       <c r="P24">
-        <v>0.1025923347997507</v>
+        <v>0.05645864226265031</v>
       </c>
       <c r="Q24">
-        <v>182.397444946605</v>
+        <v>12.6137198808905</v>
       </c>
       <c r="R24">
-        <v>1094.38466967963</v>
+        <v>75.68231928534301</v>
       </c>
       <c r="S24">
-        <v>0.03933250876522886</v>
+        <v>0.01578976255478893</v>
       </c>
       <c r="T24">
-        <v>0.03436559786313973</v>
+        <v>0.01415930827424711</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>60.1916805</v>
+        <v>26.8036935</v>
       </c>
       <c r="H25">
-        <v>120.383361</v>
+        <v>53.607387</v>
       </c>
       <c r="I25">
-        <v>0.4155477325003728</v>
+        <v>0.3213476808142776</v>
       </c>
       <c r="J25">
-        <v>0.33497237323059</v>
+        <v>0.2507908037954016</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>12.084201</v>
+        <v>1.433852333333333</v>
       </c>
       <c r="N25">
-        <v>36.252603</v>
+        <v>4.301557</v>
       </c>
       <c r="O25">
-        <v>0.377456049245055</v>
+        <v>0.1497118984699831</v>
       </c>
       <c r="P25">
-        <v>0.4091198696200947</v>
+        <v>0.1720229211556396</v>
       </c>
       <c r="Q25">
-        <v>727.3683656897805</v>
+        <v>38.4325384669265</v>
       </c>
       <c r="R25">
-        <v>4364.210194138683</v>
+        <v>230.595230801559</v>
       </c>
       <c r="S25">
-        <v>0.1568510053823317</v>
+        <v>0.04810957136363167</v>
       </c>
       <c r="T25">
-        <v>0.1370438536624327</v>
+        <v>0.04314176666785585</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>11.74303333333333</v>
+        <v>2.854607333333333</v>
       </c>
       <c r="H26">
-        <v>35.2291</v>
+        <v>8.563822</v>
       </c>
       <c r="I26">
-        <v>0.08107085287879547</v>
+        <v>0.03422369555905032</v>
       </c>
       <c r="J26">
-        <v>0.09802663038937567</v>
+        <v>0.04006402705173345</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.60302</v>
+        <v>2.326206</v>
       </c>
       <c r="N26">
-        <v>13.20604</v>
+        <v>4.652412</v>
       </c>
       <c r="O26">
-        <v>0.2062486251499857</v>
+        <v>0.2428846460657843</v>
       </c>
       <c r="P26">
-        <v>0.1490335290681818</v>
+        <v>0.186053910865194</v>
       </c>
       <c r="Q26">
-        <v>77.53948396066667</v>
+        <v>6.640404706444</v>
       </c>
       <c r="R26">
-        <v>465.236903764</v>
+        <v>39.842428238664</v>
       </c>
       <c r="S26">
-        <v>0.01672075194598833</v>
+        <v>0.008312410182923089</v>
       </c>
       <c r="T26">
-        <v>0.01460925466959093</v>
+        <v>0.007454068917983939</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>11.74303333333333</v>
+        <v>2.854607333333333</v>
       </c>
       <c r="H27">
-        <v>35.2291</v>
+        <v>8.563822</v>
       </c>
       <c r="I27">
-        <v>0.08107085287879547</v>
+        <v>0.03422369555905032</v>
       </c>
       <c r="J27">
-        <v>0.09802663038937567</v>
+        <v>0.04006402705173345</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>8.668665000000001</v>
       </c>
       <c r="O27">
-        <v>0.09025669255057035</v>
+        <v>0.301705241695111</v>
       </c>
       <c r="P27">
-        <v>0.0978280951185844</v>
+        <v>0.3466672825257581</v>
       </c>
       <c r="Q27">
-        <v>33.9321406835</v>
+        <v>8.248544893070001</v>
       </c>
       <c r="R27">
-        <v>305.3892661515001</v>
+        <v>74.23690403763001</v>
       </c>
       <c r="S27">
-        <v>0.007317187043093963</v>
+        <v>0.01032546834034317</v>
       </c>
       <c r="T27">
-        <v>0.00958975852188616</v>
+        <v>0.0138888873850629</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>11.74303333333333</v>
+        <v>2.854607333333333</v>
       </c>
       <c r="H28">
-        <v>35.2291</v>
+        <v>8.563822</v>
       </c>
       <c r="I28">
-        <v>0.08107085287879547</v>
+        <v>0.03422369555905032</v>
       </c>
       <c r="J28">
-        <v>0.09802663038937567</v>
+        <v>0.04006402705173345</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>6.577456666666667</v>
+        <v>1.056895</v>
       </c>
       <c r="N28">
-        <v>19.73237</v>
+        <v>3.170685</v>
       </c>
       <c r="O28">
-        <v>0.2054501416751135</v>
+        <v>0.1103528956608731</v>
       </c>
       <c r="P28">
-        <v>0.2226848273955795</v>
+        <v>0.1267983885287046</v>
       </c>
       <c r="Q28">
-        <v>77.23929288522223</v>
+        <v>3.017020217563333</v>
       </c>
       <c r="R28">
-        <v>695.153635967</v>
+        <v>27.15318195807</v>
       </c>
       <c r="S28">
-        <v>0.01665601820967081</v>
+        <v>0.003776683905157367</v>
       </c>
       <c r="T28">
-        <v>0.02182904326842839</v>
+        <v>0.00508005406813023</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>11.74303333333333</v>
+        <v>2.854607333333333</v>
       </c>
       <c r="H29">
-        <v>35.2291</v>
+        <v>8.563822</v>
       </c>
       <c r="I29">
-        <v>0.08107085287879547</v>
+        <v>0.03422369555905032</v>
       </c>
       <c r="J29">
-        <v>0.09802663038937567</v>
+        <v>0.04006402705173345</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.8303464999999999</v>
+        <v>1.400306</v>
       </c>
       <c r="N29">
-        <v>1.660693</v>
+        <v>2.800612</v>
       </c>
       <c r="O29">
-        <v>0.02593628733868784</v>
+        <v>0.1462092468138222</v>
       </c>
       <c r="P29">
-        <v>0.01874134399780903</v>
+        <v>0.1119988546620533</v>
       </c>
       <c r="Q29">
-        <v>9.750786627716666</v>
+        <v>3.997323776510667</v>
       </c>
       <c r="R29">
-        <v>58.50471976629999</v>
+        <v>23.983942659064</v>
       </c>
       <c r="S29">
-        <v>0.002102676935056928</v>
+        <v>0.005003820750874299</v>
       </c>
       <c r="T29">
-        <v>0.00183715080107337</v>
+        <v>0.004487125142943668</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>11.74303333333333</v>
+        <v>2.854607333333333</v>
       </c>
       <c r="H30">
-        <v>35.2291</v>
+        <v>8.563822</v>
       </c>
       <c r="I30">
-        <v>0.08107085287879547</v>
+        <v>0.03422369555905032</v>
       </c>
       <c r="J30">
-        <v>0.09802663038937567</v>
+        <v>0.04006402705173345</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.030276666666667</v>
+        <v>0.4705963333333334</v>
       </c>
       <c r="N30">
-        <v>9.09083</v>
+        <v>1.411789</v>
       </c>
       <c r="O30">
-        <v>0.09465220404058775</v>
+        <v>0.04913607129442642</v>
       </c>
       <c r="P30">
-        <v>0.1025923347997507</v>
+        <v>0.05645864226265031</v>
       </c>
       <c r="Q30">
-        <v>35.5846399058889</v>
+        <v>1.343367744173111</v>
       </c>
       <c r="R30">
-        <v>320.261759153</v>
+        <v>12.090309697558</v>
       </c>
       <c r="S30">
-        <v>0.007673534908428219</v>
+        <v>0.001681617944948241</v>
       </c>
       <c r="T30">
-        <v>0.01005678088419824</v>
+        <v>0.002261960570914964</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>11.74303333333333</v>
+        <v>2.854607333333333</v>
       </c>
       <c r="H31">
-        <v>35.2291</v>
+        <v>8.563822</v>
       </c>
       <c r="I31">
-        <v>0.08107085287879547</v>
+        <v>0.03422369555905032</v>
       </c>
       <c r="J31">
-        <v>0.09802663038937567</v>
+        <v>0.04006402705173345</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>12.084201</v>
+        <v>1.433852333333333</v>
       </c>
       <c r="N31">
-        <v>36.252603</v>
+        <v>4.301557</v>
       </c>
       <c r="O31">
-        <v>0.377456049245055</v>
+        <v>0.1497118984699831</v>
       </c>
       <c r="P31">
-        <v>0.4091198696200947</v>
+        <v>0.1720229211556396</v>
       </c>
       <c r="Q31">
-        <v>141.9051751497</v>
+        <v>4.093085385650444</v>
       </c>
       <c r="R31">
-        <v>1277.1465763473</v>
+        <v>36.837768470854</v>
       </c>
       <c r="S31">
-        <v>0.03060068383655723</v>
+        <v>0.005123694434804154</v>
       </c>
       <c r="T31">
-        <v>0.04010464224419859</v>
+        <v>0.006891930966697755</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>12.521722</v>
+        <v>1.737518333333333</v>
       </c>
       <c r="H32">
-        <v>37.565166</v>
+        <v>5.212555</v>
       </c>
       <c r="I32">
-        <v>0.0864467172352836</v>
+        <v>0.0208309905793004</v>
       </c>
       <c r="J32">
-        <v>0.1045268440862112</v>
+        <v>0.02438583433058843</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>6.60302</v>
+        <v>2.326206</v>
       </c>
       <c r="N32">
-        <v>13.20604</v>
+        <v>4.652412</v>
       </c>
       <c r="O32">
-        <v>0.2062486251499857</v>
+        <v>0.2428846460657843</v>
       </c>
       <c r="P32">
-        <v>0.1490335290681818</v>
+        <v>0.186053910865194</v>
       </c>
       <c r="Q32">
-        <v>82.68118080044002</v>
+        <v>4.04182557211</v>
       </c>
       <c r="R32">
-        <v>496.08708480264</v>
+        <v>24.25095343266</v>
       </c>
       <c r="S32">
-        <v>0.01782951657850682</v>
+        <v>0.005059527774053065</v>
       </c>
       <c r="T32">
-        <v>0.01557800445652766</v>
+        <v>0.004537079846916689</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>12.521722</v>
+        <v>1.737518333333333</v>
       </c>
       <c r="H33">
-        <v>37.565166</v>
+        <v>5.212555</v>
       </c>
       <c r="I33">
-        <v>0.0864467172352836</v>
+        <v>0.0208309905793004</v>
       </c>
       <c r="J33">
-        <v>0.1045268440862112</v>
+        <v>0.02438583433058843</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>8.668665000000001</v>
       </c>
       <c r="O33">
-        <v>0.09025669255057035</v>
+        <v>0.301705241695111</v>
       </c>
       <c r="P33">
-        <v>0.0978280951185844</v>
+        <v>0.3466672825257581</v>
       </c>
       <c r="Q33">
-        <v>36.18220441371001</v>
+        <v>5.020654787675</v>
       </c>
       <c r="R33">
-        <v>325.6398397233901</v>
+        <v>45.185893089075</v>
       </c>
       <c r="S33">
-        <v>0.007802394779511083</v>
+        <v>0.006284819047476408</v>
       </c>
       <c r="T33">
-        <v>0.01022566204571131</v>
+        <v>0.008453770919508431</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>12.521722</v>
+        <v>1.737518333333333</v>
       </c>
       <c r="H34">
-        <v>37.565166</v>
+        <v>5.212555</v>
       </c>
       <c r="I34">
-        <v>0.0864467172352836</v>
+        <v>0.0208309905793004</v>
       </c>
       <c r="J34">
-        <v>0.1045268440862112</v>
+        <v>0.02438583433058843</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>6.577456666666667</v>
+        <v>1.056895</v>
       </c>
       <c r="N34">
-        <v>19.73237</v>
+        <v>3.170685</v>
       </c>
       <c r="O34">
-        <v>0.2054501416751135</v>
+        <v>0.1103528956608731</v>
       </c>
       <c r="P34">
-        <v>0.2226848273955795</v>
+        <v>0.1267983885287046</v>
       </c>
       <c r="Q34">
-        <v>82.36108384704669</v>
+        <v>1.836374438908333</v>
       </c>
       <c r="R34">
-        <v>741.2497546234201</v>
+        <v>16.527369950175</v>
       </c>
       <c r="S34">
-        <v>0.01776049030333749</v>
+        <v>0.002298760129910169</v>
       </c>
       <c r="T34">
-        <v>0.02327654223354258</v>
+        <v>0.003092084496046575</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>12.521722</v>
+        <v>1.737518333333333</v>
       </c>
       <c r="H35">
-        <v>37.565166</v>
+        <v>5.212555</v>
       </c>
       <c r="I35">
-        <v>0.0864467172352836</v>
+        <v>0.0208309905793004</v>
       </c>
       <c r="J35">
-        <v>0.1045268440862112</v>
+        <v>0.02438583433058843</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.8303464999999999</v>
+        <v>1.400306</v>
       </c>
       <c r="N35">
-        <v>1.660693</v>
+        <v>2.800612</v>
       </c>
       <c r="O35">
-        <v>0.02593628733868784</v>
+        <v>0.1462092468138222</v>
       </c>
       <c r="P35">
-        <v>0.01874134399780903</v>
+        <v>0.1119988546620533</v>
       </c>
       <c r="Q35">
-        <v>10.397368036673</v>
+        <v>2.433057347276667</v>
       </c>
       <c r="R35">
-        <v>62.384208220038</v>
+        <v>14.59834408366</v>
       </c>
       <c r="S35">
-        <v>0.002242106897700615</v>
+        <v>0.003045683442985338</v>
       </c>
       <c r="T35">
-        <v>0.001958973542025034</v>
+        <v>0.002731185515004484</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>12.521722</v>
+        <v>1.737518333333333</v>
       </c>
       <c r="H36">
-        <v>37.565166</v>
+        <v>5.212555</v>
       </c>
       <c r="I36">
-        <v>0.0864467172352836</v>
+        <v>0.0208309905793004</v>
       </c>
       <c r="J36">
-        <v>0.1045268440862112</v>
+        <v>0.02438583433058843</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>3.030276666666667</v>
+        <v>0.4705963333333334</v>
       </c>
       <c r="N36">
-        <v>9.09083</v>
+        <v>1.411789</v>
       </c>
       <c r="O36">
-        <v>0.09465220404058775</v>
+        <v>0.04913607129442642</v>
       </c>
       <c r="P36">
-        <v>0.1025923347997507</v>
+        <v>0.05645864226265031</v>
       </c>
       <c r="Q36">
-        <v>37.94428200308668</v>
+        <v>0.8176697567661112</v>
       </c>
       <c r="R36">
-        <v>341.4985380277801</v>
+        <v>7.359027810895001</v>
       </c>
       <c r="S36">
-        <v>0.008182372318393057</v>
+        <v>0.00102355303823803</v>
       </c>
       <c r="T36">
-        <v>0.01072365298405391</v>
+        <v>0.001376791096746949</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>12.521722</v>
+        <v>1.737518333333333</v>
       </c>
       <c r="H37">
-        <v>37.565166</v>
+        <v>5.212555</v>
       </c>
       <c r="I37">
-        <v>0.0864467172352836</v>
+        <v>0.0208309905793004</v>
       </c>
       <c r="J37">
-        <v>0.1045268440862112</v>
+        <v>0.02438583433058843</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>12.084201</v>
+        <v>1.433852333333333</v>
       </c>
       <c r="N37">
-        <v>36.252603</v>
+        <v>4.301557</v>
       </c>
       <c r="O37">
-        <v>0.377456049245055</v>
+        <v>0.1497118984699831</v>
       </c>
       <c r="P37">
-        <v>0.4091198696200947</v>
+        <v>0.1720229211556396</v>
       </c>
       <c r="Q37">
-        <v>151.315005514122</v>
+        <v>2.491344716459444</v>
       </c>
       <c r="R37">
-        <v>1361.835049627098</v>
+        <v>22.422102448135</v>
       </c>
       <c r="S37">
-        <v>0.03262983635783455</v>
+        <v>0.003118647146637398</v>
       </c>
       <c r="T37">
-        <v>0.04276400882435068</v>
+        <v>0.004194922456365303</v>
       </c>
     </row>
   </sheetData>
